--- a/medicine/Enfance/Gene_Stratton-Porter/Gene_Stratton-Porter.xlsx
+++ b/medicine/Enfance/Gene_Stratton-Porter/Gene_Stratton-Porter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gene Stratton-Porter (1863-1924) est une romancière américaine, une photographe de la Nature et une productrice de films. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1863 dans l'Indiana, Geneva Grace Stratton est le douzième et dernier enfant de Mary (née Shallenberger) et Mark Stratton. Son père est fermier et pasteur méthodiste d’ascendance anglaise ; sa mère est d'origine suisse-allemande et meurt quand Geneva a onze ans. Geneva grandit chez divers membres de sa famille jusqu’à son mariage en 1886 avec Charles Porter, un droguiste qui deviendra par la suite un riche homme d'affaires. C'est à ce moment qu'elle raccourcit son prénom en Gene. Le couple n'aura qu'un enfant.
 Elle a écrit plusieurs romans à succès en plus de chroniques pour des magazines nationaux tels que McCall's et Good Housekeeping. Ses romans ont été traduits dans plus de vingt langues. On estime à cinquante millions le nombre de ses lecteurs dans les années 1910. Huit de ses romans ont été adaptés au cinéma, parmi lesquels A Girl of the Limberlost, son roman le plus célèbre (inédit en Belgique et en France).
